--- a/Рассчёт коэффициентов для букмекера на 2 исхода v2.xlsx
+++ b/Рассчёт коэффициентов для букмекера на 2 исхода v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\Создание калькулятора для камертона\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\Парсинг сайта букмекера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E4EE49-FDF5-4A6C-A46A-CD47AE7BCEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3060F9-C8D7-4F7B-B0D8-C01762427AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="1020" windowWidth="24450" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 исхода" sheetId="4" r:id="rId1"/>
@@ -703,14 +703,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>2.95</v>
+        <v>1.87</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="13">
         <f>C3-1</f>
-        <v>1.9500000000000002</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="H3" s="13"/>
       <c r="K3" s="13"/>
@@ -720,14 +720,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="13">
         <f>1/(C4-1)</f>
-        <v>0.5714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="H4" s="13"/>
       <c r="K4" s="13"/>
@@ -762,7 +762,7 @@
     <row r="8" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="25">
         <f>IF(G6="Нет","Невозможно",G16)</f>
-        <v>42.324561403508781</v>
+        <v>21.88081936685289</v>
       </c>
       <c r="C8" s="26"/>
       <c r="F8" s="13"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="G9" s="15">
         <f>C3-G4-1</f>
-        <v>1.378571428571429</v>
+        <v>0.4700000000000002</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -789,14 +789,14 @@
       </c>
       <c r="C10" s="20">
         <f>((1/C3) + (1/C4))</f>
-        <v>0.70261941448382126</v>
+        <v>0.82047364400305567</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="15">
         <f>G3*(C4-1)-1</f>
-        <v>2.4125000000000005</v>
+        <v>1.1750000000000003</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -819,7 +819,7 @@
       </c>
       <c r="G12" s="15">
         <f>(G9*G3+G10*G4)/(G9+G10)</f>
-        <v>1.0727272727272728</v>
+        <v>0.53428571428571436</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -850,7 +850,7 @@
       </c>
       <c r="G14" s="15">
         <f>G9*(G3-G12)/(G3-G4)</f>
-        <v>0.87727272727272754</v>
+        <v>0.3357142857142858</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="G16" s="15">
         <f>100*G14/(1+G12)</f>
-        <v>42.324561403508781</v>
+        <v>21.88081936685289</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -895,18 +895,18 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <f>G18</f>
-        <v>48.245614035087719</v>
+        <v>65.176908752327748</v>
       </c>
       <c r="C18" s="12">
         <f>G19</f>
-        <v>51.754385964912281</v>
+        <v>34.823091247672252</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="14">
         <f>C14/(1+G12)</f>
-        <v>48.245614035087719</v>
+        <v>65.176908752327748</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
       </c>
       <c r="G19" s="14">
         <f>C14-G18</f>
-        <v>51.754385964912281</v>
+        <v>34.823091247672252</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -935,18 +935,18 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <f>G22</f>
-        <v>142.32456140350877</v>
+        <v>121.88081936685289</v>
       </c>
       <c r="C22" s="12">
         <f>G23</f>
-        <v>142.32456140350877</v>
+        <v>121.88081936685288</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="14">
         <f>G18*C3</f>
-        <v>142.32456140350877</v>
+        <v>121.88081936685289</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
       </c>
       <c r="G23" s="14">
         <f>G19*C4</f>
-        <v>142.32456140350877</v>
+        <v>121.88081936685288</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
